--- a/Administracao/Controle/presencas_e_entregas.xlsx
+++ b/Administracao/Controle/presencas_e_entregas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presenças" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="36">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -48,16 +48,13 @@
     <t xml:space="preserve">Ok</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana </t>
+    <t xml:space="preserve">Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">Arthur</t>
@@ -552,10 +549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,12 +626,12 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -647,18 +644,20 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -674,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -682,9 +681,7 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -700,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -727,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -751,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -772,13 +769,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -796,15 +793,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -828,9 +827,7 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -846,10 +843,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -870,13 +867,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -897,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -918,13 +915,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -942,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -950,7 +947,9 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -966,10 +965,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -992,17 +991,15 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1018,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1066,15 +1063,17 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1090,13 +1089,13 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1116,17 +1115,15 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1161,32 +1158,8 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M3 B5:M25 B4:D4 F4:M4">
+  <conditionalFormatting sqref="B2:M2 B4:M24 B3:D3 F3:M3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Ok"</formula>
     </cfRule>
@@ -1212,10 +1185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,7 +1249,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1295,12 +1270,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1313,7 +1290,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1322,9 +1299,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1343,12 +1322,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1367,12 +1348,14 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1391,12 +1374,14 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1415,12 +1400,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1433,7 +1420,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1444,7 +1431,9 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1457,18 +1446,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1481,7 +1472,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1492,7 +1483,9 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1505,18 +1498,20 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1529,7 +1524,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1538,9 +1533,11 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1553,10 +1550,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1564,7 +1561,9 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1577,18 +1576,20 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1601,18 +1602,20 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1636,7 +1639,9 @@
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1649,18 +1654,20 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1673,18 +1680,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1697,10 +1706,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1708,7 +1717,9 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1721,10 +1732,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -1732,7 +1743,9 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1745,18 +1758,20 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1767,80 +1782,8 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M25">
+  <conditionalFormatting sqref="B2:M22">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Ok"</formula>
     </cfRule>
@@ -1866,10 +1809,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1853,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2056,7 +1999,9 @@
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
@@ -2064,9 +2009,7 @@
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -2078,16 +2021,8 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D25">
+  <conditionalFormatting sqref="B2:D24">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"X"</formula>
     </cfRule>

--- a/Administracao/Controle/presencas_e_entregas.xlsx
+++ b/Administracao/Controle/presencas_e_entregas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="36">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1187,8 +1187,8 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,9 +1250,11 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1278,7 +1280,9 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1304,7 +1308,9 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1330,7 +1336,9 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1356,7 +1364,9 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1382,7 +1392,9 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1408,7 +1420,9 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1434,7 +1448,9 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1460,7 +1476,9 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1486,7 +1504,9 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1512,7 +1532,9 @@
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1538,7 +1560,9 @@
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1564,7 +1588,9 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1590,7 +1616,9 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1616,7 +1644,9 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1640,9 +1670,11 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1666,9 +1698,11 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1692,9 +1726,11 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1720,7 +1756,9 @@
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1744,9 +1782,11 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1770,9 +1810,11 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>

--- a/Administracao/Controle/presencas_e_entregas.xlsx
+++ b/Administracao/Controle/presencas_e_entregas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="36">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1188,14 +1188,18 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="3.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,8 +1259,12 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1283,8 +1291,12 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1311,8 +1323,12 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1339,8 +1355,12 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1367,8 +1387,12 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1395,8 +1419,12 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1423,8 +1451,12 @@
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1451,8 +1483,12 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1479,8 +1515,12 @@
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1507,8 +1547,12 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1535,8 +1579,12 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1563,8 +1611,12 @@
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1591,8 +1643,12 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1619,8 +1675,12 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1647,8 +1707,12 @@
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1675,8 +1739,12 @@
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1703,8 +1771,12 @@
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1731,8 +1803,12 @@
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1759,8 +1835,12 @@
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1787,8 +1867,12 @@
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1815,8 +1899,12 @@
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
